--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,49 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CID03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>advertising</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>banaglore</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>am  |  131423424  |  ashnsfh@google.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,92 +530,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CID02</t>
+          <t>CID03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>advertising</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>banaglore</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mukesh  |  76554467  |  Mukesh@ey.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Nan</t>
-        </is>
-      </c>
+          <t>am  |  131423424  |  ashnsfh@google.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>in-process</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Tech and Service Now</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CID03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>advertising</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>banaglore</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>am  |  131423424  |  ashnsfh@google.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>in-process</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -514,12 +514,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -530,7 +530,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,16 +512,8 @@
           <t>Advait  |  983321781  |  advait@gmail.com</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -538,6 +530,51 @@
           <t>this is my first client</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Client2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CID02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>advait  |  6352414  |  zjsfnj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -504,7 +504,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bombay</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -512,8 +512,16 @@
           <t>Advait  |  983321781  |  advait@gmail.com</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -553,16 +561,8 @@
           <t>advait  |  6352414  |  zjsfnj@gmail.com</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>in-process</t>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>Area of interest</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,16 +517,8 @@
           <t>Advait  |  983321781  |  advait@gmail.com</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -538,6 +535,7 @@
           <t>this is my first client</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -575,6 +573,53 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Client3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CID03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Consultant</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -1,37 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353C02E-E968-C145-9615-DD29549211FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Type of Company</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Contact person 1</t>
+  </si>
+  <si>
+    <t>Contact Person 2</t>
+  </si>
+  <si>
+    <t>Contact Person 3</t>
+  </si>
+  <si>
+    <t>Onboarding status</t>
+  </si>
+  <si>
+    <t>Area of Interest</t>
+  </si>
+  <si>
+    <t>Type of company</t>
+  </si>
+  <si>
+    <t>Area of interest</t>
+  </si>
+  <si>
+    <t>Contact Person 1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +94,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +418,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Client Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Client ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type of Company</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Contact person 1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Person 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Person 3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Onboarding status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Area of Interest</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Type of company</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Area of interest</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Person 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Client1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CID01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bombay</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Advait  |  983321781  |  advait@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>in-process</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>this is my first client</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Client2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CID02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>advait  |  6352414  |  zjsfnj@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>in-process</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Client3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CID03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -1,85 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353C02E-E968-C145-9615-DD29549211FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Type of Company</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Contact person 1</t>
-  </si>
-  <si>
-    <t>Contact Person 2</t>
-  </si>
-  <si>
-    <t>Contact Person 3</t>
-  </si>
-  <si>
-    <t>Onboarding status</t>
-  </si>
-  <si>
-    <t>Area of Interest</t>
-  </si>
-  <si>
-    <t>Type of company</t>
-  </si>
-  <si>
-    <t>Area of interest</t>
-  </si>
-  <si>
-    <t>Contact Person 1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,54 +420,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Client Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Client ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type of Company</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact person 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Onboarding status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Area of Interest</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Type of company</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Area of interest</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CID01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Tech and Sales</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Mukesh  |  +91 9811119911  |  Mukesh@company1.com</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,16 +517,8 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -542,6 +534,52 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Mukesh  |  +91 9811119911  |  Mukesh@company1.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Client2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CID02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Name  |  Number  |  Email@company2.com</t>
         </is>
       </c>
     </row>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -1,121 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DC878-0F55-CE40-8749-60A50A33FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Type of Company</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Contact Person 2</t>
-  </si>
-  <si>
-    <t>Contact Person 3</t>
-  </si>
-  <si>
-    <t>Onboarding status</t>
-  </si>
-  <si>
-    <t>Area of Interest</t>
-  </si>
-  <si>
-    <t>Type of company</t>
-  </si>
-  <si>
-    <t>Area of interest</t>
-  </si>
-  <si>
-    <t>Contact Person 1</t>
-  </si>
-  <si>
-    <t>Client1</t>
-  </si>
-  <si>
-    <t>CID01</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>in-process</t>
-  </si>
-  <si>
-    <t>Tech and Sales</t>
-  </si>
-  <si>
-    <t>Mukesh  |  +91 9811119911  |  Mukesh@company1.com</t>
-  </si>
-  <si>
-    <t>Client2</t>
-  </si>
-  <si>
-    <t>CID02</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>Name  |  Number  |  Email@company2.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,97 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Client Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Client ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type of Company</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Onboarding status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Area of Interest</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Type of company</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Area of interest</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Client1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CID01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Mukesh  |  +91 9811119911  |  Mukesh@company1.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Tech and Sales</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Client2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CID02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Name  |  Number  |  Email@company2.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Client3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CID03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Name  |  Person  |  Email</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>wow</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,16 +594,8 @@
           <t>Name  |  Person  |  Email</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Rejected</t>
@@ -614,6 +606,55 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>wow</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LnT Cloud</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CID04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jitender D  |    |  </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cloud and Infra Presales </t>
         </is>
       </c>
     </row>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSP</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jitender D  |    |  </t>
+          <t xml:space="preserve">Jitender D  |  8787878787  |  </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -1,37 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CCFA23-D24F-7340-8F88-B013595196D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Type of Company</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Contact Person 1</t>
+  </si>
+  <si>
+    <t>Contact Person 2</t>
+  </si>
+  <si>
+    <t>Contact Person 3</t>
+  </si>
+  <si>
+    <t>Onboarding status</t>
+  </si>
+  <si>
+    <t>Area of Interest</t>
+  </si>
+  <si>
+    <t>Type of company</t>
+  </si>
+  <si>
+    <t>Area of interest</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +91,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,242 +415,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Client Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Client ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type of Company</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Person 1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Person 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Person 3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Onboarding status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Area of Interest</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Type of company</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Area of interest</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Client1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CID01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mukesh  |  +91 9811119911  |  Mukesh@company1.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>in-process</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Tech and Sales</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Client2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CID02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Name  |  Number  |  Email@company2.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>in-process</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Client3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CID03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Networking</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Gurgaon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Name  |  Person  |  Email</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>wow</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LnT Cloud</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CID04</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jitender D  |  8787878787  |  </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>in-process</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cloud and Infra Presales </t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -1,82 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CCFA23-D24F-7340-8F88-B013595196D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Type of Company</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Contact Person 1</t>
-  </si>
-  <si>
-    <t>Contact Person 2</t>
-  </si>
-  <si>
-    <t>Contact Person 3</t>
-  </si>
-  <si>
-    <t>Onboarding status</t>
-  </si>
-  <si>
-    <t>Area of Interest</t>
-  </si>
-  <si>
-    <t>Type of company</t>
-  </si>
-  <si>
-    <t>Area of interest</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,48 +420,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Client Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Client ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type of Company</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Person 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Onboarding status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Area of Interest</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Type of company</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Area of interest</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LnT Cloud</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CID01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jitender D  |    |  </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infra presales, GPU </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,16 +516,8 @@
           <t xml:space="preserve">Jitender D  |    |  </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -536,6 +528,55 @@
       <c r="K2" t="inlineStr">
         <is>
           <t xml:space="preserve">Infra presales, GPU </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CID02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pan India</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arjun Puri  |  9920577005  |  </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prince Laurel  |  9080715132  |  </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>in-process</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Cloud, Salesforce</t>
         </is>
       </c>
     </row>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -516,8 +516,16 @@
           <t xml:space="preserve">Jitender D  |    |  </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -562,11 +570,7 @@
           <t xml:space="preserve">Prince Laurel  |  9080715132  |  </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>in-process</t>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,16 +516,8 @@
           <t xml:space="preserve">Jitender D  |    |  </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>in-process</t>
@@ -581,6 +573,51 @@
       <c r="K3" t="inlineStr">
         <is>
           <t>Cloud, Salesforce</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CID03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Vmware, Vsphere, Vsan Vrops</t>
         </is>
       </c>
     </row>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,21 +593,9 @@
           <t>Nagpur</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -618,6 +606,51 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>Vmware, Vsphere, Vsan Vrops</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CID04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Salesforce QA</t>
         </is>
       </c>
     </row>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,21 +626,9 @@
           <t>Pune</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -653,6 +641,51 @@
           <t>Salesforce QA</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cloud Era</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CID05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Enterprise Datacloud Company</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Silvia Alberini   |    |  </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,16 +668,8 @@
           <t xml:space="preserve"> Silvia Alberini   |    |  </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -686,6 +678,51 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nutanix</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CID06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mumbai &amp; Bangalore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Nutanix, VMware</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,21 +696,9 @@
           <t>Mumbai &amp; Bangalore</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -723,6 +711,51 @@
           <t>Nutanix, VMware</t>
         </is>
       </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CID07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jitender  |    |  </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,16 +738,8 @@
           <t xml:space="preserve">Jitender  |    |  </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -756,6 +748,47 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Galaxy Automation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CID08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Goregoan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,21 +766,9 @@
           <t>Goregoan</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -789,6 +777,47 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Galaxy Automation Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CID09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Goregoan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/clients.xlsx
+++ b/excel_files/clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,21 +795,9 @@
           <t>Goregoan</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -818,6 +806,47 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Galaxy Automation Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CID10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Goregoan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
